--- a/Project_Doc/Project-plan.xlsx
+++ b/Project_Doc/Project-plan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Coding\AWS\AWS_project\Project_Document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Coding\AWS\AWS_project\AWS_UKDER1_Rekognition\Project_Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5C277D-A393-40EC-8768-457CC6797516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2BC66B-D927-4C90-B708-068661508C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project breif" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
   <si>
     <t>Starting date</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -225,6 +225,22 @@
   </si>
   <si>
     <t>4. Present the result back to the end user</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Andrejz/Robert</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hassan/Mou</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Akash/Narinder</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Progress</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -526,7 +542,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -564,6 +580,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -850,7 +869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AAA790E-0128-41EF-9AA9-7614C935EF5F}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -897,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B31B63-6157-40AF-88DB-9E54A65E67A5}">
   <dimension ref="B1:F18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1094,22 +1113,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -1117,7 +1137,7 @@
         <v>44340</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
         <v>3</v>
       </c>
@@ -1125,7 +1145,7 @@
         <v>44374</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>16</v>
       </c>
@@ -1134,7 +1154,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
         <v>1</v>
       </c>
@@ -1150,8 +1170,11 @@
       <c r="E5" s="18" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
         <v>14</v>
       </c>
@@ -1159,31 +1182,35 @@
       <c r="C6" s="20"/>
       <c r="D6" s="27"/>
       <c r="E6" s="27"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" s="27"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="C7">
         <v>7</v>
       </c>
       <c r="D7" s="28">
-        <v>44345</v>
+        <v>44352</v>
       </c>
       <c r="E7" s="28">
         <f>IFERROR(IF(INT(C7) &gt; 0, D7+C7, "TBD"), "")</f>
-        <v>44352</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>44359</v>
+      </c>
+      <c r="F7" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="C8">
         <v>14</v>
@@ -1192,16 +1219,19 @@
         <v>44338</v>
       </c>
       <c r="E8" s="28">
-        <f t="shared" ref="E8:E11" si="0">IFERROR(IF(INT(C8) &gt; 0, D8+C8, "TBD"), "")</f>
+        <f>IFERROR(IF(INT(C8) &gt; 0, D8+C8, "TBD"), "")</f>
         <v>44352</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C9">
         <v>14</v>
@@ -1210,11 +1240,14 @@
         <v>44338</v>
       </c>
       <c r="E9" s="28">
-        <f t="shared" si="0"/>
+        <f>IFERROR(IF(INT(C9) &gt; 0, D9+C9, "TBD"), "")</f>
         <v>44352</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1222,11 +1255,14 @@
         <v>11</v>
       </c>
       <c r="E10" s="28" t="str">
-        <f t="shared" si="0"/>
+        <f>IFERROR(IF(INT(C10) &gt; 0, D10+C10, "TBD"), "")</f>
         <v>TBD</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1234,11 +1270,14 @@
         <v>13</v>
       </c>
       <c r="E11" s="28" t="str">
-        <f t="shared" si="0"/>
+        <f>IFERROR(IF(INT(C11) &gt; 0, D11+C11, "TBD"), "")</f>
         <v>TBD</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
         <v>15</v>
       </c>
@@ -1246,6 +1285,7 @@
       <c r="C12" s="20"/>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Project_Doc/Project-plan.xlsx
+++ b/Project_Doc/Project-plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Coding\AWS\AWS_project\AWS_UKDER1_Rekognition\Project_Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2BC66B-D927-4C90-B708-068661508C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9B0299-4E2B-40AF-A058-AF33F301D367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project breif" sheetId="3" r:id="rId1"/>
@@ -869,7 +869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AAA790E-0128-41EF-9AA9-7614C935EF5F}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -1115,8 +1115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1223,7 +1223,7 @@
         <v>44352</v>
       </c>
       <c r="F8" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">

--- a/Project_Doc/Project-plan.xlsx
+++ b/Project_Doc/Project-plan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Coding\AWS\AWS_project\AWS_UKDER1_Rekognition\Project_Doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9B0299-4E2B-40AF-A058-AF33F301D367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1E572C-042E-47F2-A77F-A9A357872F24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="56">
   <si>
     <t>Starting date</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -54,10 +54,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Design Document</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Akash</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -87,10 +83,6 @@
   </si>
   <si>
     <t>Alexa</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jyothy</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -232,15 +224,54 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>Akash/Narinder</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Progress</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Updated  Deadline</t>
+  </si>
+  <si>
     <t>Hassan/Mou</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Akash/Narinder</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Progress</t>
+  </si>
+  <si>
+    <t>Jyothi</t>
+  </si>
+  <si>
+    <t>Michael/Nemiya</t>
+  </si>
+  <si>
+    <t>Testing 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Robert/Andejz</t>
+  </si>
+  <si>
+    <t>Rasberry Pi Ph 2 (activated by Motion sensor)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Design Document </t>
+  </si>
+  <si>
+    <t>File uploading without credentials (through API gateway)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AWS Lambda 2 (integrate metadata, thumbnail, delete the old pic in S3)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNS email notification</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Research: Mayowa</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -542,7 +573,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -585,6 +616,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
@@ -647,7 +685,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -682,7 +720,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -866,7 +904,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AAA790E-0128-41EF-9AA9-7614C935EF5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -880,30 +918,30 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -913,11 +951,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B31B63-6157-40AF-88DB-9E54A65E67A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:F18"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B2" sqref="B2:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -926,19 +964,19 @@
     <col min="2" max="2" width="22.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>19</v>
-      </c>
       <c r="D2" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="5"/>
@@ -952,13 +990,13 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="8"/>
@@ -972,19 +1010,19 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
@@ -996,10 +1034,10 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -1014,16 +1052,16 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F10" s="8"/>
     </row>
@@ -1036,10 +1074,10 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>10</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>11</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -1054,13 +1092,13 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="8"/>
@@ -1074,16 +1112,16 @@
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>27</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>29</v>
       </c>
       <c r="F16" s="8"/>
     </row>
@@ -1096,10 +1134,10 @@
     </row>
     <row r="18" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
@@ -1112,24 +1150,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.125" customWidth="1"/>
+    <col min="2" max="2" width="49.375" customWidth="1"/>
     <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.375" style="2" customWidth="1"/>
     <col min="6" max="6" width="11.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -1137,7 +1176,7 @@
         <v>44340</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="23" t="s">
         <v>3</v>
       </c>
@@ -1145,16 +1184,16 @@
         <v>44374</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" s="26">
-        <f>DATEDIF(B1,B2, "D")</f>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+        <f ca="1">DATEDIF(TODAY(),B2, "D")</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
         <v>1</v>
       </c>
@@ -1162,7 +1201,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>0</v>
@@ -1171,25 +1210,29 @@
         <v>3</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" s="20"/>
       <c r="C6" s="20"/>
       <c r="D6" s="27"/>
       <c r="E6" s="27"/>
       <c r="F6" s="27"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" s="27"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C7">
         <v>7</v>
@@ -1202,15 +1245,19 @@
         <v>44359</v>
       </c>
       <c r="F7" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>0.15</v>
+      </c>
+      <c r="G7" s="28">
+        <f>IFERROR(IF(INT(E7) &gt; 0, F7+E7, "TBD"), "")</f>
+        <v>44359.15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C8">
         <v>14</v>
@@ -1225,13 +1272,17 @@
       <c r="F8" s="29">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" s="28">
+        <f>IFERROR(IF(INT(E8) &gt; 0, F8+E8, "TBD"), "")</f>
+        <v>44353</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9">
         <v>14</v>
@@ -1244,48 +1295,328 @@
         <v>44352</v>
       </c>
       <c r="F9" s="29">
+        <v>0.85</v>
+      </c>
+      <c r="G9" s="28">
+        <f>IFERROR(IF(INT(E9) &gt; 0, F9+E9, "TBD"), "")</f>
+        <v>44352.85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>14</v>
+      </c>
+      <c r="D10" s="28">
+        <v>44352</v>
+      </c>
+      <c r="E10" s="28">
+        <f>IFERROR(IF(INT(C10) &gt; 0, D10+C10, "TBD"), "")</f>
+        <v>44366</v>
+      </c>
+      <c r="F10" s="29">
+        <v>0.1</v>
+      </c>
+      <c r="G10" s="28">
+        <f>IFERROR(IF(INT(E10) &gt; 0, F10+E10, "TBD"), "")</f>
+        <v>44366.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11">
+        <v>7</v>
+      </c>
+      <c r="D11" s="28">
+        <v>44352</v>
+      </c>
+      <c r="E11" s="28">
+        <f>IFERROR(IF(INT(C11) &gt; 0, D11+C11, "TBD"), "")</f>
+        <v>44359</v>
+      </c>
+      <c r="F11" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="28">
+        <f>IFERROR(IF(INT(E11) &gt; 0, F11+E11, "TBD"), "")</f>
+        <v>44359.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="28"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+    </row>
+    <row r="14" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14">
+        <v>14</v>
+      </c>
+      <c r="D14" s="32">
+        <v>44352</v>
+      </c>
+      <c r="E14" s="32">
+        <f>IFERROR(IF(INT(C14) &gt; 0, D14+C14, "TBD"), "")</f>
+        <v>44366</v>
+      </c>
+      <c r="F14" s="29">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15" s="32">
+        <v>44352</v>
+      </c>
+      <c r="E15" s="32">
+        <f t="shared" ref="E15:E18" si="0">IFERROR(IF(INT(C15) &gt; 0, D15+C15, "TBD"), "")</f>
+        <v>44366</v>
+      </c>
+      <c r="F15" s="29">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="D16" s="32">
+        <v>44352</v>
+      </c>
+      <c r="E16" s="32">
+        <f t="shared" si="0"/>
+        <v>44359</v>
+      </c>
+      <c r="F16" s="29">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17">
+        <v>7</v>
+      </c>
+      <c r="D17" s="32">
+        <v>44360</v>
+      </c>
+      <c r="E17" s="32">
+        <f t="shared" si="0"/>
+        <v>44367</v>
+      </c>
+      <c r="F17" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="D18"/>
+      <c r="E18" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>TBD</v>
+      </c>
+      <c r="F18" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+    </row>
+    <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+    </row>
+    <row r="26" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+    </row>
+    <row r="27" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+    </row>
+    <row r="29" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="11"/>
+    </row>
+    <row r="30" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+    </row>
+    <row r="31" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+    </row>
+    <row r="32" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="28" t="str">
-        <f>IFERROR(IF(INT(C10) &gt; 0, D10+C10, "TBD"), "")</f>
-        <v>TBD</v>
-      </c>
-      <c r="F10" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="28" t="str">
-        <f>IFERROR(IF(INT(C11) &gt; 0, D11+C11, "TBD"), "")</f>
-        <v>TBD</v>
-      </c>
-      <c r="F11" s="29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
+      <c r="B32" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="11"/>
+    </row>
+    <row r="33" spans="1:5" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
